--- a/data/trans_camb/P37-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2513579129486305</v>
+        <v>-0.2585469267313611</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.04443147754204</v>
+        <v>-1.058288404389739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.9403057504153</v>
+        <v>-2.911118313760988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.407437787812646</v>
+        <v>-1.394218215299645</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.271707619493351</v>
+        <v>-0.9253272865710106</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.300622272521989</v>
+        <v>4.777058407138076</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1682104879583637</v>
+        <v>-0.1593236662484769</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2908819778083082</v>
+        <v>-0.04715194271402474</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.673270985386168</v>
+        <v>1.539984746158272</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.486368073208086</v>
+        <v>5.305003252238635</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.698831175008828</v>
+        <v>4.545374486039692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.877894317302687</v>
+        <v>3.645331407764616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.146021197715001</v>
+        <v>3.207787894963293</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.616286857929754</v>
+        <v>3.888905931310714</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.31594062931445</v>
+        <v>15.79358813645205</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.381683698456104</v>
+        <v>3.56566160009034</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.501475142656459</v>
+        <v>3.473534908518336</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.687941011566368</v>
+        <v>7.454266989271387</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07565454113723828</v>
+        <v>-0.07202152947788648</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2373607740813052</v>
+        <v>-0.2451020324298003</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.701760115339963</v>
+        <v>-0.6834643442594982</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4717471983455174</v>
+        <v>-0.4595371311577977</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4570673976279652</v>
+        <v>-0.3343703363590488</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.288720069871282</v>
+        <v>1.231519272144795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05291070308955108</v>
+        <v>-0.04490006128385948</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08322845138106261</v>
+        <v>-0.04318696272217483</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4643413125263767</v>
+        <v>0.3810565497690578</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.387387825555822</v>
+        <v>2.081714901873216</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.974155999215234</v>
+        <v>1.911579490411846</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.676173272072668</v>
+        <v>1.695358280132626</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.238309403805725</v>
+        <v>2.142822953288208</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.36761462374907</v>
+        <v>2.87718385164225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>9.755508193132505</v>
+        <v>9.721331402063315</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.456719965933619</v>
+        <v>1.536966754512509</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.506844580301603</v>
+        <v>1.516525224028096</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.194796826362065</v>
+        <v>3.065774804250442</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7601510854160646</v>
+        <v>-1.013393390648865</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.585154548365024</v>
+        <v>-2.647198243399294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.685254789864225</v>
+        <v>2.600913137437328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7072607637632253</v>
+        <v>-0.8588711397022728</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.80993284780075</v>
+        <v>-2.076178446890743</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.867965801368353</v>
+        <v>8.924163796975435</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2442419296729234</v>
+        <v>-0.2664637762199512</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.597383431527611</v>
+        <v>-1.710689842906707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.884997027076103</v>
+        <v>6.893583023809748</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.04597389838566</v>
+        <v>4.093745148705461</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.109638566560042</v>
+        <v>1.916987115248856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.17276877730522</v>
+        <v>10.97401090802967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.102713235912951</v>
+        <v>4.239749491062548</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.733121567006303</v>
+        <v>2.607371980089165</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.56179674866832</v>
+        <v>16.36012414175665</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.2402677685045</v>
+        <v>3.403223841529156</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.535455072543484</v>
+        <v>1.504004055582234</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.4760490250389</v>
+        <v>12.17657619235561</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1492982237819495</v>
+        <v>-0.1914283354388307</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.471462265880278</v>
+        <v>-0.4804242166199652</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4512520746158583</v>
+        <v>0.4234606120949433</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1587055338614824</v>
+        <v>-0.187559364623657</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.374142308429912</v>
+        <v>-0.4029661745275752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.725540823806804</v>
+        <v>1.833408388310753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05143518773621092</v>
+        <v>-0.06302562302039227</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3260053215265795</v>
+        <v>-0.341828635453414</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.375068575553342</v>
+        <v>1.386873324143471</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.153696196905182</v>
+        <v>1.217407457368084</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6193658498094722</v>
+        <v>0.5618124819119006</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.01562772122407</v>
+        <v>3.028377448432467</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.546770120019722</v>
+        <v>1.756090354647771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.063653924850328</v>
+        <v>1.004357316365283</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.375328710355953</v>
+        <v>6.779007813353592</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9398560091500259</v>
+        <v>0.9779910504047616</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.46706428006159</v>
+        <v>0.4355842376824712</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.681441041886729</v>
+        <v>3.58649755334139</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.425416519607875</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>9.386714266971783</v>
+        <v>9.386714266971785</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.026383395764448</v>
+        <v>-0.6516883841756055</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.988007554468068</v>
+        <v>-5.1117159699133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.474956891351966</v>
+        <v>5.8916352394047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.88615518273336</v>
+        <v>-2.11156354964681</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.768711797890635</v>
+        <v>-2.78287202229907</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.052542966334344</v>
+        <v>6.174450471614109</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6647019875784073</v>
+        <v>-0.6490414054279227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.179565184328845</v>
+        <v>-3.190811967928062</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.067117124182035</v>
+        <v>6.997740204715424</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.559333077790261</v>
+        <v>4.798401395812666</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.5040733939842289</v>
+        <v>-0.5391711511729784</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.93363387330228</v>
+        <v>13.55052661585674</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.723733456987673</v>
+        <v>3.41051980454083</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.528156939223273</v>
+        <v>2.889533332893469</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.48990447986937</v>
+        <v>12.38331302851311</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.39115321314508</v>
+        <v>3.277080041617837</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3161452448045103</v>
+        <v>0.3416940427555767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.89996219119849</v>
+        <v>11.74645124853457</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2381072403100706</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.567994055732333</v>
+        <v>1.567994055732334</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1620185273527965</v>
+        <v>-0.1022577790596083</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7366523749848657</v>
+        <v>-0.7343325174824126</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7892627191582894</v>
+        <v>0.8323884448007934</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2474819757545077</v>
+        <v>-0.2578724209243856</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3657872758968128</v>
+        <v>-0.3653858444350094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7498939489195082</v>
+        <v>0.7667611169996635</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0960753884270876</v>
+        <v>-0.09905239850039839</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4485437395209281</v>
+        <v>-0.4540105013135877</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.014232830076901</v>
+        <v>0.9956995355139325</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.059099992014037</v>
+        <v>1.184325120073136</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1073876569982438</v>
+        <v>-0.07885819639621795</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.116064752141843</v>
+        <v>3.134803139486973</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.716986260000302</v>
+        <v>0.6427271361438095</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4937700069022888</v>
+        <v>0.5359890362920303</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.448738543415268</v>
+        <v>2.391462444727708</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6762740782380533</v>
+        <v>0.6284476892220107</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0713352930641907</v>
+        <v>0.08544284666800006</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.406496769321059</v>
+        <v>2.36198070871027</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.876783358683416</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.51334283287314</v>
+        <v>17.51334283287315</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.527221615682371</v>
@@ -1306,7 +1306,7 @@
         <v>1.20464897122831</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>15.2801097861068</v>
+        <v>15.28010978610682</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.472612399101013</v>
+        <v>-2.525988812016386</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.899027200069816</v>
+        <v>-2.499039722906588</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.199584501420285</v>
+        <v>9.190565672051486</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8830826769726987</v>
+        <v>-0.5864733178172218</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.857560126751682</v>
+        <v>-0.9640938716617969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.38111055046934</v>
+        <v>14.27866414649478</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7974165947944098</v>
+        <v>-0.6768166744849177</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9893712073613198</v>
+        <v>-0.9708044418075389</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>12.94377517131959</v>
+        <v>12.89131789162134</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.273677905570385</v>
+        <v>3.893122830431246</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.618832730672484</v>
+        <v>3.998219196782201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.20446303876426</v>
+        <v>16.95777825513386</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.483265463156693</v>
+        <v>5.344430530926577</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.877524660046703</v>
+        <v>4.959714422532784</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.45763828539305</v>
+        <v>20.29189355080878</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.868567548247739</v>
+        <v>3.80276319477629</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.361229193803807</v>
+        <v>3.571259624013728</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.75801309945861</v>
+        <v>17.73963102195082</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3665962893380075</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>3.420920409769412</v>
+        <v>3.420920409769413</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2432013168574524</v>
@@ -1411,7 +1411,7 @@
         <v>0.1918334661749786</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.433270183939367</v>
+        <v>2.433270183939368</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2760438998915105</v>
+        <v>-0.2792622941375788</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3160133018191365</v>
+        <v>-0.2909165910054143</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.9805837105228754</v>
+        <v>0.972570085169537</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1673391371042036</v>
+        <v>-0.09906872692970552</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1349528785108499</v>
+        <v>-0.1537699260352549</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.961132137840082</v>
+        <v>2.038529400847651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1101341175541701</v>
+        <v>-0.09669002971424825</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1358369241444956</v>
+        <v>-0.1423485370452881</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.718777007866985</v>
+        <v>1.703271839427958</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7361763711639484</v>
+        <v>0.6606438965496934</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6323789262459334</v>
+        <v>0.7068516410803898</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.085962003686309</v>
+        <v>2.962360686183716</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.383196998034186</v>
+        <v>1.461004729349341</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.308226724054483</v>
+        <v>1.266819216459437</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.337647430439512</v>
+        <v>5.478238761057562</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7484006404809045</v>
+        <v>0.7581241835318874</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6624580353591032</v>
+        <v>0.6654977161644791</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.541686951156204</v>
+        <v>3.498283931814122</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.6112770328768141</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>19.65050799032779</v>
+        <v>19.6505079903278</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.252840559148877</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.082158445480248</v>
+        <v>-4.310297516849193</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.584257024070949</v>
+        <v>-4.762500354882197</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13.16631675942961</v>
+        <v>13.08455151954513</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.816491271253487</v>
+        <v>-3.676225210548876</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.682873178838738</v>
+        <v>-5.654744492775809</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14.15835213995806</v>
+        <v>14.38456321695864</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.439757013997619</v>
+        <v>-2.775662466285862</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.717359985271831</v>
+        <v>-3.66930746531169</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>15.46266969715781</v>
+        <v>15.10859093481708</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.326368069993957</v>
+        <v>7.453268247540971</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.621921291951707</v>
+        <v>6.123498860139855</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23.77544197655657</v>
+        <v>24.1060530425348</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.055512071536385</v>
+        <v>6.987891858624216</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.349780132031863</v>
+        <v>4.708038447494549</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.08009105680311</v>
+        <v>24.67020954395144</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.338855037848331</v>
+        <v>4.98801542906299</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.751752567306268</v>
+        <v>4.139000771240489</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>22.28917945449378</v>
+        <v>22.65313418907741</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.02649752841927137</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.9771126645469996</v>
+        <v>0.977112664547</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.08573749140915554</v>
@@ -1616,7 +1616,7 @@
         <v>-0.03461706797726087</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.112822720800585</v>
+        <v>1.112822720800586</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.06933384226813048</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.230331669903504</v>
+        <v>-0.2085793266949194</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2276739637013527</v>
+        <v>-0.2243939000243589</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5980128508682215</v>
+        <v>0.577935712515581</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1842164829550406</v>
+        <v>-0.1820495436597626</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2790373970565718</v>
+        <v>-0.2910589563497967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6773469962513131</v>
+        <v>0.6811885941361231</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1222709029275707</v>
+        <v>-0.1390213729141304</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1914434903022331</v>
+        <v>-0.1847170244040481</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7709373300440002</v>
+        <v>0.7232747743312736</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4063097062579396</v>
+        <v>0.4825720918811581</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3615524013496519</v>
+        <v>0.4170180098717726</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.548096668171778</v>
+        <v>1.567029806302609</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4929955652256439</v>
+        <v>0.471823705126632</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3004002314864783</v>
+        <v>0.3100151084752005</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.64132919441393</v>
+        <v>1.734111593732417</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3308076042582065</v>
+        <v>0.3063970111000574</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2355756855844078</v>
+        <v>0.2550871367722392</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.399766715429895</v>
+        <v>1.418346791820249</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.406761632138476</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>29.5205624616523</v>
+        <v>29.52056246165229</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.22632423354844</v>
@@ -1734,7 +1734,7 @@
         <v>2.570929706858021</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>30.88878116260345</v>
+        <v>30.88878116260346</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>9.990124429143112</v>
+        <v>9.396349876064328</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.3870392318385643</v>
+        <v>-0.952577796495272</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25.95011493103281</v>
+        <v>25.57625749686201</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.863298386293787</v>
+        <v>-4.739796234064571</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.708422295508205</v>
+        <v>-8.578073452183846</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>23.34479760370467</v>
+        <v>23.33513131510176</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.217321353763906</v>
+        <v>4.804423961672771</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.116644761535698</v>
+        <v>-2.898964607778789</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>26.23444768287898</v>
+        <v>26.18933759079608</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.93536995920932</v>
+        <v>25.82282116151599</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.21388299331779</v>
+        <v>15.70249753718952</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>39.41077475030155</v>
+        <v>39.08269855327902</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.72708225394998</v>
+        <v>10.19274041371037</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.883198564404906</v>
+        <v>5.573550667853302</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>35.60989643230371</v>
+        <v>35.27304658620848</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>15.1967622858715</v>
+        <v>15.78590365393124</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.883970740145049</v>
+        <v>7.56501255062166</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>34.76950710138094</v>
+        <v>35.17277542262479</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03175196722734532</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6663075750724746</v>
+        <v>0.6663075750724744</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2426327097475581</v>
@@ -1839,7 +1839,7 @@
         <v>0.06099861759702949</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.7328761051497812</v>
+        <v>0.7328761051497814</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.228679381014253</v>
+        <v>0.2200655302983418</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.008706381216954219</v>
+        <v>-0.02332320896128101</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5827385523076737</v>
+        <v>0.5760426773348055</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.08103831536043821</v>
+        <v>-0.09825808780442737</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1794416745630085</v>
+        <v>-0.181520460271201</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4720164561389438</v>
+        <v>0.4713761538346543</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09511532891763708</v>
+        <v>0.1076612507191339</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.06786662294938364</v>
+        <v>-0.06487134310061367</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.5808286469867363</v>
+        <v>0.5746417767017201</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7312302167059415</v>
+        <v>0.7380180502795161</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4415242076114486</v>
+        <v>0.4448010291745041</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.161488834193079</v>
+        <v>1.142011459310101</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2625655399238862</v>
+        <v>0.2503933867773484</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.143832224844844</v>
+        <v>0.1338658930167809</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9020918344287413</v>
+        <v>0.877931127822247</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.385857622114133</v>
+        <v>0.4001016865911954</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2051160777216025</v>
+        <v>0.196448485267863</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9040443251859551</v>
+        <v>0.8946850106712005</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-1.225136247729819</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>20.01126336438649</v>
+        <v>20.01126336438648</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.011909645278465</v>
@@ -1939,7 +1939,7 @@
         <v>-1.964447248030488</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>24.95312097933627</v>
+        <v>24.95312097933626</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.155771040856624</v>
@@ -1948,7 +1948,7 @@
         <v>-1.643219521484163</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>23.06510494142407</v>
+        <v>23.06510494142406</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.068813358370356</v>
+        <v>-7.590617551510098</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.599788685860482</v>
+        <v>-9.42506306388322</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12.82298374524502</v>
+        <v>12.69059101304665</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.306720526299958</v>
+        <v>-4.397367631014824</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.00555222152941</v>
+        <v>-10.0762679549742</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>18.70388029408202</v>
+        <v>18.43832705780548</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.81087044051297</v>
+        <v>-3.419809114138549</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-7.660638365411507</v>
+        <v>-7.247087222291137</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>18.53164418384912</v>
+        <v>18.40606512989515</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.425721351542297</v>
+        <v>10.79830375690519</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.993691587821378</v>
+        <v>7.58384144815661</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>26.817189345115</v>
+        <v>27.62165552517259</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.84883432191605</v>
+        <v>11.0158538880742</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.998115092678336</v>
+        <v>5.877205890243601</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>31.51049298101081</v>
+        <v>30.88548615320948</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.748721005093211</v>
+        <v>7.636966430828646</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.485986857361463</v>
+        <v>4.402904378257701</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>27.22895025968952</v>
+        <v>27.53529936838837</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.01800406497500158</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2940767498405916</v>
+        <v>0.2940767498405915</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.04876714513325172</v>
@@ -2044,7 +2044,7 @@
         <v>-0.03180722376632335</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.404026885147271</v>
+        <v>0.4040268851472709</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.03358553860512239</v>
@@ -2053,7 +2053,7 @@
         <v>-0.02560031266287316</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3593396319738939</v>
+        <v>0.3593396319738937</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1115309961135861</v>
+        <v>-0.1067804667172134</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1322616018358752</v>
+        <v>-0.1303228872802376</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1783046579293495</v>
+        <v>0.1716663284051074</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0663985333043666</v>
+        <v>-0.06656398472600467</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1522241873518627</v>
+        <v>-0.1548190814465212</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2762537599041486</v>
+        <v>0.2738220967206105</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05672667488251611</v>
+        <v>-0.05015892031324452</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1134200761432985</v>
+        <v>-0.1094173304261447</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2742273690069751</v>
+        <v>0.2733369253762537</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1468061964805337</v>
+        <v>0.1727308532548096</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1113315907812892</v>
+        <v>0.1201214242010876</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4348068743438745</v>
+        <v>0.4437022607651744</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1905514166866425</v>
+        <v>0.190416099783511</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1070018382800192</v>
+        <v>0.1034937342821477</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5576186805080857</v>
+        <v>0.5456518838092592</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1263239479145168</v>
+        <v>0.1250605060734444</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07577321920548792</v>
+        <v>0.07109709549377044</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.457357844882943</v>
+        <v>0.4623338303694801</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>1.43962477905723</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>20.14247579865765</v>
+        <v>20.14247579865764</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.081377736944521</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.066662864563853</v>
+        <v>1.678233219458584</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.2382371858950618</v>
+        <v>0.157865127163647</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>14.99923425729431</v>
+        <v>14.97526304748571</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.53092427151218</v>
+        <v>0.6713603796115081</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5526820017622955</v>
+        <v>-0.4219226951812126</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>18.30704081997465</v>
+        <v>18.26334300796561</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.754171305804118</v>
+        <v>1.822189001810797</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.4213482839946291</v>
+        <v>0.3678184357095275</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>17.33277355551953</v>
+        <v>17.19865432393117</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.560444492730539</v>
+        <v>5.615805663469948</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.810136549499639</v>
+        <v>3.557737909968238</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>19.2369276954552</v>
+        <v>18.99112124682175</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.334288614089346</v>
+        <v>4.361010246280332</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.128907262815252</v>
+        <v>3.172140381716091</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>21.99126920591694</v>
+        <v>22.11340602103162</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.484371283842456</v>
+        <v>4.349935693944873</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.964593087022088</v>
+        <v>2.952018275285796</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>20.0670716100156</v>
+        <v>20.06492336491863</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.09082124470655704</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>1.270723281592714</v>
+        <v>1.270723281592713</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2070821005813346</v>
@@ -2267,7 +2267,7 @@
         <v>0.1111103237699204</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>1.253267658242007</v>
+        <v>1.253267658242006</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1400510801098869</v>
+        <v>0.1166073627353098</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.014624158883781</v>
+        <v>0.01094733999383178</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.010734129371211</v>
+        <v>1.01300303045903</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03338309420111905</v>
+        <v>0.040297104321809</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.03463663421613647</v>
+        <v>-0.02505691985330063</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.082289051958092</v>
+        <v>1.086622205935507</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.113758755179617</v>
+        <v>0.1167300643530446</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.02653458135921868</v>
+        <v>0.02555549019060015</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.108792345404773</v>
+        <v>1.102168826762068</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4317612924547706</v>
+        <v>0.4231670013994975</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2851685925371448</v>
+        <v>0.2713911098995596</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.475803111698633</v>
+        <v>1.449892603057037</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2936103158955018</v>
+        <v>0.2850885625623495</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2077738678750844</v>
+        <v>0.2091436403650635</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.495241678536936</v>
+        <v>1.496821548607476</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3182380755514468</v>
+        <v>0.3049544761015344</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.209222654650202</v>
+        <v>0.2100834255324496</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.406977771030939</v>
+        <v>1.411828272725768</v>
       </c>
     </row>
     <row r="52">
